--- a/Output/future_occ.xlsx
+++ b/Output/future_occ.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="66">
+  <fills count="63">
     <fill>
       <patternFill/>
     </fill>
@@ -54,7 +54,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2EFE2"/>
+        <fgColor rgb="00E3EFE3"/>
       </patternFill>
     </fill>
     <fill>
@@ -64,42 +64,260 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00CDE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0081BF81"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9F2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C8E2C8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0075B975"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00E6F1E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCE4CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0081BF81"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E3EFE3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C8E2C8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0075B975"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D6E9D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C2DFC2"/>
+        <fgColor rgb="00DDECDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0DEC0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C9E2C8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AFD6AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B1D7B1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BBDCBB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C7E1C7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0089C389"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BCDCBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0076BA76"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009ACB9A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007ABC7A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C4E0C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0080BF80"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A0CEA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0099CB99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0086C286"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7E9D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A2CFA2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCECDC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008DC58D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A9D3A9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5E9D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A6D2A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009FCE9F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ACD4AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007FBE7F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0082C082"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBEBDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090C790"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A4D0A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFEDDF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008BC48B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B7DAB7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0085C185"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0095C995"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B5D9B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CBE4CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ABD4AB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B2D7B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1EEE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0EEE0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0EEDF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D0E6D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B4D8B4"/>
       </patternFill>
     </fill>
     <fill>
@@ -109,255 +327,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00AFD6AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B0D6B0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B1D7B1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BBDCBB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009CCD9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008AC48A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BCDCBC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0076BA76"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0095C995"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007ABC7A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0078BB78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C9E3C9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0080BF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009ECE9E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C1DFC1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0099CB99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0085C185"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A2CFA2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DCECDC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008FC68F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A9D3A9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5E9D5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B5D9B5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00A7D2A7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D2E7D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C6E1C6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007DBD7D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0087C287"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DBEBDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009FCE9F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DFEDDF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B7DAB7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0090C790"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9F2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009BCC9B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B2D7B1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0EEE0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CDE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C4E0C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0EEDF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CFE5CF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0E6D0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9EAD9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A8D2A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B9DBB9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CBE4CB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A4D0A4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A1CFA1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BFDEBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008DC58D"/>
+        <fgColor rgb="00A3D0A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CEE5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDDDBD"/>
       </patternFill>
     </fill>
   </fills>
@@ -379,75 +364,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -974,94 +956,94 @@
       <c r="B3" s="2" t="n">
         <v>0.01470588235294118</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>0.04411764705882353</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="E3" s="5" t="n">
+      <c r="C3" s="2" t="n">
+        <v>0.01470588235294118</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.1029411764705882</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0.2205882352941176</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>0.7205882352941176</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>0.6911764705882353</v>
+      </c>
+      <c r="K3" s="10" t="n">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="L3" s="11" t="n">
+        <v>0.4558823529411765</v>
+      </c>
+      <c r="M3" s="12" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="N3" s="13" t="n">
+        <v>0.4264705882352941</v>
+      </c>
+      <c r="O3" s="14" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="P3" s="15" t="n">
+        <v>0.6617647058823529</v>
+      </c>
+      <c r="Q3" s="16" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="R3" s="17" t="n">
+        <v>0.6029411764705882</v>
+      </c>
+      <c r="S3" s="18" t="n">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="T3" s="19" t="n">
+        <v>0.4411764705882353</v>
+      </c>
+      <c r="U3" s="20" t="n">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="V3" s="13" t="n">
+        <v>0.4264705882352941</v>
+      </c>
+      <c r="W3" s="21" t="n">
+        <v>0.3382352941176471</v>
+      </c>
+      <c r="X3" s="22" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="Y3" s="21" t="n">
+        <v>0.3382352941176471</v>
+      </c>
+      <c r="Z3" s="6" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="AA3" s="23" t="n">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="AB3" s="24" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="AC3" s="24" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="AD3" s="25" t="n">
         <v>0.1323529411764706</v>
       </c>
-      <c r="F3" s="6" t="n">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <v>0.4558823529411765</v>
-      </c>
-      <c r="H3" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="9" t="n">
-        <v>0.6617647058823529</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <v>0.6764705882352942</v>
-      </c>
-      <c r="K3" s="11" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L3" s="12" t="n">
-        <v>0.4264705882352941</v>
-      </c>
-      <c r="M3" s="13" t="n">
-        <v>0.3823529411764706</v>
-      </c>
-      <c r="N3" s="14" t="n">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="O3" s="7" t="n">
-        <v>0.4558823529411765</v>
-      </c>
-      <c r="P3" s="15" t="n">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="Q3" s="9" t="n">
-        <v>0.6617647058823529</v>
-      </c>
-      <c r="R3" s="16" t="n">
-        <v>0.6323529411764706</v>
-      </c>
-      <c r="S3" s="17" t="n">
-        <v>0.5735294117647058</v>
-      </c>
-      <c r="T3" s="18" t="n">
-        <v>0.4411764705882353</v>
-      </c>
-      <c r="U3" s="19" t="n">
-        <v>0.3088235294117647</v>
-      </c>
-      <c r="V3" s="12" t="n">
-        <v>0.4264705882352941</v>
-      </c>
-      <c r="W3" s="20" t="n">
-        <v>0.3382352941176471</v>
-      </c>
-      <c r="X3" s="6" t="n">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="Y3" s="20" t="n">
-        <v>0.3382352941176471</v>
-      </c>
-      <c r="Z3" s="21" t="n">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="AA3" s="5" t="n">
-        <v>0.1323529411764706</v>
-      </c>
-      <c r="AB3" s="22" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="AC3" s="22" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="AD3" s="5" t="n">
-        <v>0.1323529411764706</v>
-      </c>
-      <c r="AE3" s="23" t="n">
+      <c r="AE3" s="26" t="n">
         <v>0.1911764705882353</v>
       </c>
-      <c r="AF3" s="24" t="inlineStr"/>
+      <c r="AF3" s="27" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1069,96 +1051,96 @@
           <t>Jul</t>
         </is>
       </c>
-      <c r="B4" s="25" t="n">
+      <c r="B4" s="23" t="n">
         <v>0.1470588235294118</v>
       </c>
-      <c r="C4" s="26" t="n">
+      <c r="C4" s="28" t="n">
         <v>0.1911764705882353</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="29" t="n">
         <v>0.2205882352941176</v>
       </c>
-      <c r="E4" s="28" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F4" s="29" t="n">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="G4" s="30" t="n">
-        <v>0.5735294117647058</v>
-      </c>
-      <c r="H4" s="15" t="n">
-        <v>0.6617647058823529</v>
-      </c>
-      <c r="I4" s="10" t="n">
-        <v>0.6911764705882353</v>
-      </c>
-      <c r="J4" s="31" t="n">
+      <c r="E4" s="30" t="n">
+        <v>0.2647058823529412</v>
+      </c>
+      <c r="F4" s="31" t="n">
+        <v>0.3676470588235294</v>
+      </c>
+      <c r="G4" s="17" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="J4" s="32" t="n">
         <v>0.4558823529411765</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="25" t="n">
         <v>0.1323529411764706</v>
       </c>
-      <c r="L4" s="32" t="n">
+      <c r="L4" s="33" t="n">
         <v>0.1029411764705882</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="34" t="n">
         <v>0.05882352941176471</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="35" t="n">
         <v>0.04411764705882353</v>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="O4" s="25" t="n">
         <v>0.1323529411764706</v>
       </c>
-      <c r="P4" s="5" t="n">
+      <c r="P4" s="25" t="n">
         <v>0.1323529411764706</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="Q4" s="34" t="n">
         <v>0.05882352941176471</v>
       </c>
-      <c r="R4" s="24" t="inlineStr"/>
+      <c r="R4" s="27" t="inlineStr"/>
       <c r="S4" s="2" t="n">
         <v>0.01470588235294118</v>
       </c>
-      <c r="T4" s="33" t="n">
+      <c r="T4" s="36" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="U4" s="3" t="n">
+      <c r="U4" s="35" t="n">
         <v>0.04411764705882353</v>
       </c>
-      <c r="V4" s="34" t="n">
+      <c r="V4" s="3" t="n">
         <v>0.02941176470588235</v>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="W4" s="34" t="n">
         <v>0.05882352941176471</v>
       </c>
-      <c r="X4" s="35" t="n">
+      <c r="X4" s="37" t="n">
         <v>0.07352941176470588</v>
       </c>
-      <c r="Y4" s="4" t="n">
+      <c r="Y4" s="34" t="n">
         <v>0.05882352941176471</v>
       </c>
-      <c r="Z4" s="3" t="n">
+      <c r="Z4" s="35" t="n">
         <v>0.04411764705882353</v>
       </c>
-      <c r="AA4" s="36" t="n">
+      <c r="AA4" s="38" t="n">
         <v>0.1764705882352941</v>
       </c>
-      <c r="AB4" s="37" t="n">
-        <v>0.3970588235294117</v>
-      </c>
-      <c r="AC4" s="38" t="n">
-        <v>0.4264705882352941</v>
-      </c>
-      <c r="AD4" s="39" t="n">
+      <c r="AB4" s="39" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="AC4" s="40" t="n">
         <v>0.4411764705882353</v>
       </c>
-      <c r="AE4" s="40" t="n">
-        <v>0.2647058823529412</v>
-      </c>
-      <c r="AF4" s="34" t="n">
-        <v>0.02941176470588235</v>
+      <c r="AD4" s="32" t="n">
+        <v>0.4558823529411765</v>
+      </c>
+      <c r="AE4" s="41" t="n">
+        <v>0.2794117647058824</v>
+      </c>
+      <c r="AF4" s="35" t="n">
+        <v>0.04411764705882353</v>
       </c>
     </row>
     <row r="5">
@@ -1167,95 +1149,95 @@
           <t>Aug</t>
         </is>
       </c>
-      <c r="B5" s="41" t="n">
+      <c r="B5" s="34" t="n">
         <v>0.02941176470588235</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0.01470588235294118</v>
       </c>
-      <c r="D5" s="41" t="n">
+      <c r="D5" s="34" t="n">
         <v>0.02941176470588235</v>
       </c>
-      <c r="E5" s="42" t="n">
+      <c r="E5" s="23" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="F5" s="23" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="G5" s="27" t="inlineStr"/>
+      <c r="H5" s="34" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="I5" s="42" t="n">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="J5" s="43" t="n">
+        <v>0.1029411764705882</v>
+      </c>
+      <c r="K5" s="43" t="n">
+        <v>0.1029411764705882</v>
+      </c>
+      <c r="L5" s="44" t="n">
+        <v>0.1911764705882353</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="O5" s="45" t="n">
+        <v>0.1323529411764706</v>
+      </c>
+      <c r="P5" s="23" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="Q5" s="46" t="n">
         <v>0.04411764705882353</v>
       </c>
-      <c r="F5" s="42" t="n">
+      <c r="R5" s="46" t="n">
         <v>0.04411764705882353</v>
       </c>
-      <c r="G5" s="24" t="inlineStr"/>
-      <c r="H5" s="2" t="n">
-        <v>0.01470588235294118</v>
-      </c>
-      <c r="I5" s="43" t="n">
+      <c r="S5" s="34" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="T5" s="46" t="n">
+        <v>0.04411764705882353</v>
+      </c>
+      <c r="U5" s="34" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="V5" s="23" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="W5" s="47" t="n">
         <v>0.07352941176470588</v>
       </c>
-      <c r="J5" s="44" t="n">
+      <c r="X5" s="47" t="n">
+        <v>0.07352941176470588</v>
+      </c>
+      <c r="Y5" s="42" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="K5" s="44" t="n">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="L5" s="45" t="n">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="M5" s="10" t="n">
-        <v>0.2205882352941176</v>
-      </c>
-      <c r="N5" s="10" t="n">
-        <v>0.2205882352941176</v>
-      </c>
-      <c r="O5" s="46" t="n">
-        <v>0.1323529411764706</v>
-      </c>
-      <c r="P5" s="47" t="n">
+      <c r="Z5" s="47" t="n">
+        <v>0.07352941176470588</v>
+      </c>
+      <c r="AA5" s="48" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="AB5" s="43" t="n">
+        <v>0.1029411764705882</v>
+      </c>
+      <c r="AC5" s="23" t="n">
         <v>0.05882352941176471</v>
       </c>
-      <c r="Q5" s="42" t="n">
-        <v>0.04411764705882353</v>
-      </c>
-      <c r="R5" s="42" t="n">
-        <v>0.04411764705882353</v>
-      </c>
-      <c r="S5" s="41" t="n">
+      <c r="AD5" s="34" t="n">
         <v>0.02941176470588235</v>
       </c>
-      <c r="T5" s="42" t="n">
-        <v>0.04411764705882353</v>
-      </c>
-      <c r="U5" s="41" t="n">
+      <c r="AE5" s="34" t="n">
         <v>0.02941176470588235</v>
       </c>
-      <c r="V5" s="47" t="n">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="W5" s="43" t="n">
-        <v>0.07352941176470588</v>
-      </c>
-      <c r="X5" s="43" t="n">
-        <v>0.07352941176470588</v>
-      </c>
-      <c r="Y5" s="44" t="n">
-        <v>0.08823529411764706</v>
-      </c>
-      <c r="Z5" s="43" t="n">
-        <v>0.07352941176470588</v>
-      </c>
-      <c r="AA5" s="29" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="AB5" s="48" t="n">
-        <v>0.1029411764705882</v>
-      </c>
-      <c r="AC5" s="47" t="n">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="AD5" s="41" t="n">
-        <v>0.02941176470588235</v>
-      </c>
-      <c r="AE5" s="41" t="n">
-        <v>0.02941176470588235</v>
-      </c>
-      <c r="AF5" s="43" t="n">
+      <c r="AF5" s="47" t="n">
         <v>0.07352941176470588</v>
       </c>
     </row>
@@ -1265,73 +1247,73 @@
           <t>Sep</t>
         </is>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="49" t="n">
         <v>0.1176470588235294</v>
       </c>
-      <c r="C6" s="49" t="n">
+      <c r="C6" s="50" t="n">
         <v>0.1617647058823529</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="8" t="n">
         <v>0.1764705882352941</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="49" t="n">
         <v>0.1176470588235294</v>
       </c>
-      <c r="F6" s="50" t="n">
+      <c r="F6" s="51" t="n">
         <v>0.1029411764705882</v>
       </c>
-      <c r="G6" s="51" t="n">
+      <c r="G6" s="43" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="H6" s="51" t="n">
+      <c r="H6" s="43" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="I6" s="50" t="n">
+      <c r="I6" s="51" t="n">
         <v>0.1029411764705882</v>
       </c>
       <c r="J6" s="52" t="n">
         <v>0.1323529411764706</v>
       </c>
-      <c r="K6" s="50" t="n">
+      <c r="K6" s="51" t="n">
         <v>0.1029411764705882</v>
       </c>
-      <c r="L6" s="51" t="n">
+      <c r="L6" s="43" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="M6" s="27" t="n">
+      <c r="M6" s="29" t="n">
         <v>0.07352941176470588</v>
       </c>
-      <c r="N6" s="50" t="n">
+      <c r="N6" s="51" t="n">
         <v>0.1029411764705882</v>
       </c>
-      <c r="O6" s="51" t="n">
+      <c r="O6" s="43" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="P6" s="51" t="n">
+      <c r="P6" s="43" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="Q6" s="51" t="n">
+      <c r="Q6" s="43" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="R6" s="25" t="n">
+      <c r="R6" s="23" t="n">
         <v>0.05882352941176471</v>
       </c>
-      <c r="S6" s="50" t="n">
+      <c r="S6" s="51" t="n">
         <v>0.1029411764705882</v>
       </c>
       <c r="T6" s="52" t="n">
         <v>0.1323529411764706</v>
       </c>
-      <c r="U6" s="50" t="n">
+      <c r="U6" s="51" t="n">
         <v>0.1029411764705882</v>
       </c>
-      <c r="V6" s="52" t="n">
-        <v>0.1323529411764706</v>
-      </c>
-      <c r="W6" s="52" t="n">
-        <v>0.1323529411764706</v>
-      </c>
-      <c r="X6" s="14" t="n">
+      <c r="V6" s="44" t="n">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="W6" s="44" t="n">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="X6" s="49" t="n">
         <v>0.1176470588235294</v>
       </c>
       <c r="Y6" s="2" t="n">
@@ -1346,16 +1328,16 @@
       <c r="AB6" s="2" t="n">
         <v>0.02941176470588235</v>
       </c>
-      <c r="AC6" s="27" t="n">
+      <c r="AC6" s="29" t="n">
         <v>0.07352941176470588</v>
       </c>
-      <c r="AD6" s="51" t="n">
+      <c r="AD6" s="43" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="AE6" s="54" t="n">
+      <c r="AE6" s="44" t="n">
         <v>0.1470588235294118</v>
       </c>
-      <c r="AF6" s="24" t="inlineStr"/>
+      <c r="AF6" s="27" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1369,25 +1351,25 @@
       <c r="C7" s="2" t="n">
         <v>0.01470588235294118</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="35" t="n">
         <v>0.02941176470588235</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0.01470588235294118</v>
       </c>
-      <c r="F7" s="55" t="n">
+      <c r="F7" s="54" t="n">
         <v>0.1470588235294118</v>
       </c>
-      <c r="G7" s="56" t="n">
+      <c r="G7" s="55" t="n">
         <v>0.3382352941176471</v>
       </c>
-      <c r="H7" s="56" t="n">
+      <c r="H7" s="55" t="n">
         <v>0.3382352941176471</v>
       </c>
-      <c r="I7" s="57" t="n">
+      <c r="I7" s="56" t="n">
         <v>0.3088235294117647</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="35" t="n">
         <v>0.02941176470588235</v>
       </c>
       <c r="K7" s="2" t="n">
@@ -1396,54 +1378,58 @@
       <c r="L7" s="2" t="n">
         <v>0.01470588235294118</v>
       </c>
-      <c r="M7" s="58" t="n">
+      <c r="M7" s="57" t="n">
         <v>0.07352941176470588</v>
       </c>
-      <c r="N7" s="59" t="n">
-        <v>0.1617647058823529</v>
-      </c>
-      <c r="O7" s="59" t="n">
-        <v>0.1617647058823529</v>
-      </c>
-      <c r="P7" s="60" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="Q7" s="24" t="inlineStr"/>
-      <c r="R7" s="24" t="inlineStr"/>
-      <c r="S7" s="61" t="n">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="T7" s="8" t="n">
+      <c r="N7" s="51" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="O7" s="51" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="P7" s="30" t="n">
+        <v>0.1323529411764706</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0.01470588235294118</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0.01470588235294118</v>
+      </c>
+      <c r="S7" s="57" t="n">
+        <v>0.07352941176470588</v>
+      </c>
+      <c r="T7" s="58" t="n">
+        <v>0.2794117647058824</v>
+      </c>
+      <c r="U7" s="59" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="V7" s="60" t="n">
         <v>0.25</v>
       </c>
-      <c r="U7" s="62" t="n">
-        <v>0.2647058823529412</v>
-      </c>
-      <c r="V7" s="63" t="n">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="W7" s="50" t="n">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="X7" s="3" t="n">
-        <v>0.02941176470588235</v>
+      <c r="W7" s="61" t="n">
+        <v>0.1911764705882353</v>
+      </c>
+      <c r="X7" s="62" t="n">
+        <v>0.04411764705882353</v>
       </c>
       <c r="Y7" s="2" t="n">
         <v>0.01470588235294118</v>
       </c>
-      <c r="Z7" s="58" t="n">
+      <c r="Z7" s="57" t="n">
         <v>0.07352941176470588</v>
       </c>
-      <c r="AA7" s="64" t="n">
+      <c r="AA7" s="38" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="AB7" s="23" t="n">
+      <c r="AB7" s="47" t="n">
         <v>0.1029411764705882</v>
       </c>
-      <c r="AC7" s="23" t="n">
+      <c r="AC7" s="47" t="n">
         <v>0.1029411764705882</v>
       </c>
-      <c r="AD7" s="64" t="n">
+      <c r="AD7" s="38" t="n">
         <v>0.08823529411764706</v>
       </c>
       <c r="AE7" s="2" t="n">
@@ -1486,34 +1472,34 @@
       <c r="J8" s="2" t="n">
         <v>0.01470588235294118</v>
       </c>
-      <c r="K8" s="24" t="inlineStr"/>
-      <c r="L8" s="24" t="inlineStr"/>
-      <c r="M8" s="24" t="inlineStr"/>
-      <c r="N8" s="24" t="inlineStr"/>
-      <c r="O8" s="24" t="inlineStr"/>
-      <c r="P8" s="24" t="inlineStr"/>
-      <c r="Q8" s="24" t="inlineStr"/>
-      <c r="R8" s="24" t="inlineStr"/>
-      <c r="S8" s="10" t="n">
+      <c r="K8" s="27" t="inlineStr"/>
+      <c r="L8" s="27" t="inlineStr"/>
+      <c r="M8" s="27" t="inlineStr"/>
+      <c r="N8" s="27" t="inlineStr"/>
+      <c r="O8" s="27" t="inlineStr"/>
+      <c r="P8" s="27" t="inlineStr"/>
+      <c r="Q8" s="27" t="inlineStr"/>
+      <c r="R8" s="27" t="inlineStr"/>
+      <c r="S8" s="8" t="n">
         <v>0.07352941176470588</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>0.01470588235294118</v>
       </c>
-      <c r="U8" s="24" t="inlineStr"/>
+      <c r="U8" s="27" t="inlineStr"/>
       <c r="V8" s="2" t="n">
         <v>0.01470588235294118</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0.01470588235294118</v>
       </c>
-      <c r="X8" s="65" t="n">
+      <c r="X8" s="28" t="n">
         <v>0.02941176470588235</v>
       </c>
-      <c r="Y8" s="65" t="n">
+      <c r="Y8" s="28" t="n">
         <v>0.02941176470588235</v>
       </c>
-      <c r="Z8" s="65" t="n">
+      <c r="Z8" s="28" t="n">
         <v>0.02941176470588235</v>
       </c>
       <c r="AA8" s="2" t="n">
@@ -1531,7 +1517,7 @@
       <c r="AE8" s="2" t="n">
         <v>0.01470588235294118</v>
       </c>
-      <c r="AF8" s="24" t="inlineStr"/>
+      <c r="AF8" s="27" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1615,33 +1601,33 @@
       <c r="G10" s="2" t="n">
         <v>0.01470588235294118</v>
       </c>
-      <c r="H10" s="24" t="inlineStr"/>
-      <c r="I10" s="24" t="inlineStr"/>
-      <c r="J10" s="24" t="inlineStr"/>
-      <c r="K10" s="24" t="inlineStr"/>
-      <c r="L10" s="24" t="inlineStr"/>
-      <c r="M10" s="24" t="inlineStr"/>
-      <c r="N10" s="24" t="inlineStr"/>
-      <c r="O10" s="24" t="inlineStr"/>
-      <c r="P10" s="24" t="inlineStr"/>
-      <c r="Q10" s="24" t="inlineStr"/>
-      <c r="R10" s="24" t="inlineStr"/>
-      <c r="S10" s="24" t="inlineStr"/>
-      <c r="T10" s="24" t="inlineStr"/>
-      <c r="U10" s="24" t="inlineStr"/>
-      <c r="V10" s="24" t="inlineStr"/>
-      <c r="W10" s="24" t="inlineStr"/>
-      <c r="X10" s="10" t="n">
+      <c r="H10" s="27" t="inlineStr"/>
+      <c r="I10" s="27" t="inlineStr"/>
+      <c r="J10" s="27" t="inlineStr"/>
+      <c r="K10" s="27" t="inlineStr"/>
+      <c r="L10" s="27" t="inlineStr"/>
+      <c r="M10" s="27" t="inlineStr"/>
+      <c r="N10" s="27" t="inlineStr"/>
+      <c r="O10" s="27" t="inlineStr"/>
+      <c r="P10" s="27" t="inlineStr"/>
+      <c r="Q10" s="27" t="inlineStr"/>
+      <c r="R10" s="27" t="inlineStr"/>
+      <c r="S10" s="27" t="inlineStr"/>
+      <c r="T10" s="27" t="inlineStr"/>
+      <c r="U10" s="27" t="inlineStr"/>
+      <c r="V10" s="27" t="inlineStr"/>
+      <c r="W10" s="27" t="inlineStr"/>
+      <c r="X10" s="8" t="n">
         <v>0.04411764705882353</v>
       </c>
-      <c r="Y10" s="24" t="inlineStr"/>
-      <c r="Z10" s="24" t="inlineStr"/>
-      <c r="AA10" s="24" t="inlineStr"/>
-      <c r="AB10" s="24" t="inlineStr"/>
-      <c r="AC10" s="24" t="inlineStr"/>
-      <c r="AD10" s="24" t="inlineStr"/>
-      <c r="AE10" s="24" t="inlineStr"/>
-      <c r="AF10" s="24" t="inlineStr"/>
+      <c r="Y10" s="27" t="inlineStr"/>
+      <c r="Z10" s="27" t="inlineStr"/>
+      <c r="AA10" s="27" t="inlineStr"/>
+      <c r="AB10" s="27" t="inlineStr"/>
+      <c r="AC10" s="27" t="inlineStr"/>
+      <c r="AD10" s="27" t="inlineStr"/>
+      <c r="AE10" s="27" t="inlineStr"/>
+      <c r="AF10" s="27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Output/future_occ.xlsx
+++ b/Output/future_occ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Jun</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -561,358 +561,358 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.453125</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.515625</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.59375</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.578125</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.390625</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.796875</v>
+        <v>0.359375</v>
       </c>
       <c r="R2" t="n">
-        <v>0.671875</v>
+        <v>0.328125</v>
       </c>
       <c r="S2" t="n">
-        <v>0.671875</v>
+        <v>0.28125</v>
       </c>
       <c r="T2" t="n">
-        <v>0.484375</v>
+        <v>0.3125</v>
       </c>
       <c r="U2" t="n">
+        <v>0.21875</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.359375</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0.453125</v>
       </c>
-      <c r="V2" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.421875</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.359375</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.203125</v>
-      </c>
       <c r="AB2" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="AC2" t="n">
         <v>0.1875</v>
       </c>
-      <c r="AC2" t="n">
-        <v>0.21875</v>
-      </c>
       <c r="AD2" t="n">
-        <v>0.21875</v>
+        <v>0.125</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.25</v>
+        <v>0.171875</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>0.296875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.171875</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.171875</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.359375</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="U3" t="n">
         <v>0.25</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.296875</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.34375</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.40625</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.765625</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.828125</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.609375</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="V3" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.265625</v>
+      </c>
+      <c r="Y3" t="n">
         <v>0.21875</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.15625</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.109375</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.234375</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.234375</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.140625</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.046875</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.078125</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.15625</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.09375</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.0625</v>
-      </c>
       <c r="Z3" t="n">
-        <v>0.078125</v>
+        <v>0.203125</v>
       </c>
       <c r="AA3" t="n">
         <v>0.203125</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.484375</v>
+        <v>0.1875</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.53125</v>
+        <v>0.234375</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.53125</v>
+        <v>0.265625</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.328125</v>
+        <v>0.34375</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.078125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.171875</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.359375</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.203125</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.359375</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.359375</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.109375</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.359375</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.234375</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.234375</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.234375</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="AF4" t="n">
         <v>0.0625</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.046875</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.078125</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.09375</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.09375</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.015625</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.046875</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.09375</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.109375</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.203125</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.265625</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.265625</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.21875</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.09375</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.046875</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.046875</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.078125</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.078125</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.109375</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.109375</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.171875</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.140625</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.09375</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.046875</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.046875</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.09375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.21875</v>
+        <v>0.046875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.265625</v>
+        <v>0.046875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28125</v>
+        <v>0.0625</v>
       </c>
       <c r="E5" t="n">
-        <v>0.203125</v>
+        <v>0.078125</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1875</v>
+        <v>0.046875</v>
       </c>
       <c r="G5" t="n">
-        <v>0.15625</v>
+        <v>0.03125</v>
       </c>
       <c r="H5" t="n">
-        <v>0.15625</v>
+        <v>0.03125</v>
       </c>
       <c r="I5" t="n">
-        <v>0.171875</v>
+        <v>0.03125</v>
       </c>
       <c r="J5" t="n">
-        <v>0.203125</v>
+        <v>0.03125</v>
       </c>
       <c r="K5" t="n">
-        <v>0.109375</v>
+        <v>0.046875</v>
       </c>
       <c r="L5" t="n">
-        <v>0.109375</v>
+        <v>0.046875</v>
       </c>
       <c r="M5" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.015625</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="S5" t="n">
         <v>0.09375</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.109375</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.109375</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.109375</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>0.09375</v>
       </c>
-      <c r="S5" t="n">
-        <v>0.109375</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.140625</v>
-      </c>
       <c r="U5" t="n">
-        <v>0.140625</v>
+        <v>0.078125</v>
       </c>
       <c r="V5" t="n">
-        <v>0.203125</v>
+        <v>0.09375</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1875</v>
+        <v>0.03125</v>
       </c>
       <c r="X5" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03125</v>
+        <v>0.046875</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.046875</v>
+        <v>0.0625</v>
       </c>
       <c r="AA5" t="n">
         <v>0.046875</v>
@@ -921,13 +921,13 @@
         <v>0.03125</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.078125</v>
+        <v>0.015625</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.09375</v>
+        <v>0.03125</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.15625</v>
+        <v>0.03125</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -936,135 +936,135 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Oct</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.015625</v>
+        <v>0.046875</v>
       </c>
       <c r="C6" t="n">
-        <v>0.015625</v>
+        <v>0.046875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03125</v>
+        <v>0.015625</v>
       </c>
       <c r="E6" t="n">
         <v>0.015625</v>
       </c>
       <c r="F6" t="n">
-        <v>0.171875</v>
+        <v>0.015625</v>
       </c>
       <c r="G6" t="n">
-        <v>0.375</v>
+        <v>0.015625</v>
       </c>
       <c r="H6" t="n">
-        <v>0.375</v>
+        <v>0.015625</v>
       </c>
       <c r="I6" t="n">
-        <v>0.328125</v>
+        <v>0.03125</v>
       </c>
       <c r="J6" t="n">
         <v>0.03125</v>
       </c>
       <c r="K6" t="n">
-        <v>0.015625</v>
+        <v>0.03125</v>
       </c>
       <c r="L6" t="n">
-        <v>0.015625</v>
+        <v>0.09375</v>
       </c>
       <c r="M6" t="n">
-        <v>0.125</v>
+        <v>0.09375</v>
       </c>
       <c r="N6" t="n">
-        <v>0.25</v>
+        <v>0.078125</v>
       </c>
       <c r="O6" t="n">
-        <v>0.25</v>
+        <v>0.015625</v>
       </c>
       <c r="P6" t="n">
-        <v>0.203125</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.078125</v>
+        <v>0.015625</v>
       </c>
       <c r="T6" t="n">
-        <v>0.296875</v>
+        <v>0.015625</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3125</v>
+        <v>0.015625</v>
       </c>
       <c r="V6" t="n">
-        <v>0.265625</v>
+        <v>0.03125</v>
       </c>
       <c r="W6" t="n">
-        <v>0.203125</v>
+        <v>0.03125</v>
       </c>
       <c r="X6" t="n">
-        <v>0.046875</v>
+        <v>0.015625</v>
       </c>
       <c r="Y6" t="n">
         <v>0.015625</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.078125</v>
+        <v>0.03125</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.09375</v>
+        <v>0.03125</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.109375</v>
+        <v>0.015625</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.109375</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.09375</v>
+        <v>0.015625</v>
       </c>
       <c r="AE6" t="n">
         <v>0.015625</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.015625</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Nov</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.015625</v>
+        <v>0.03125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1091,43 +1091,43 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.078125</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.015625</v>
+        <v>0.046875</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.046875</v>
       </c>
       <c r="V7" t="n">
-        <v>0.015625</v>
+        <v>0.046875</v>
       </c>
       <c r="W7" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03125</v>
+        <v>0.046875</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -1136,14 +1136,14 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Dec</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1161,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.015625</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.015625</v>
       </c>
       <c r="K8" t="n">
         <v>0.015625</v>
       </c>
       <c r="L8" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1200,50 +1200,50 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.015625</v>
@@ -1255,40 +1255,40 @@
         <v>0.015625</v>
       </c>
       <c r="G9" t="n">
-        <v>0.015625</v>
+        <v>0.03125</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.046875</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.046875</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.046875</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.046875</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.078125</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.078125</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.078125</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.078125</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.015625</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.046875</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1327,9 +1327,309 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.015625</v>
       </c>
       <c r="AF9" t="n">
+        <v>0.015625</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.078125</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.078125</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.09375</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.265625</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.203125</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.015625</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/future_occ.xlsx
+++ b/Output/future_occ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,111 +436,114 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>Year</t>
         </is>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Aug</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2024</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -561,504 +564,509 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.453125</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.515625</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.59375</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.578125</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0.5</v>
       </c>
-      <c r="P2" t="n">
-        <v>0.390625</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.359375</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.328125</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.28125</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.21875</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.28125</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.359375</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.421875</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.453125</v>
-      </c>
       <c r="AB2" t="n">
-        <v>0.296875</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1875</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.125</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.171875</v>
+        <v>0.45</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.296875</v>
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Sep</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2024</v>
       </c>
       <c r="B3" t="n">
-        <v>0.375</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.484375</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.40625</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.171875</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.171875</v>
+        <v>0.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.15625</v>
+        <v>0.3</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1875</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.296875</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>0.375</v>
+        <v>0.9</v>
       </c>
       <c r="K3" t="n">
-        <v>0.328125</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L3" t="n">
-        <v>0.296875</v>
+        <v>0.9</v>
       </c>
       <c r="M3" t="n">
-        <v>0.359375</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="N3" t="n">
-        <v>0.40625</v>
+        <v>0.85</v>
       </c>
       <c r="O3" t="n">
-        <v>0.46875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="P3" t="n">
-        <v>0.609375</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.53125</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="R3" t="n">
-        <v>0.296875</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3125</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="T3" t="n">
-        <v>0.328125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="U3" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3125</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="X3" t="n">
-        <v>0.265625</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.21875</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.203125</v>
+        <v>0.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.203125</v>
+        <v>0.35</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1875</v>
+        <v>0.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.234375</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.265625</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.34375</v>
+        <v>0.35</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Oct</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>0.046875</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03125</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03125</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03125</v>
+        <v>0.7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.171875</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.359375</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>0.34375</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>0.28125</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>0.046875</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="K4" t="n">
-        <v>0.046875</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.046875</v>
+        <v>0.65</v>
       </c>
       <c r="M4" t="n">
-        <v>0.203125</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="N4" t="n">
-        <v>0.359375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="O4" t="n">
-        <v>0.359375</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="P4" t="n">
-        <v>0.328125</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.109375</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R4" t="n">
-        <v>0.125</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1875</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="T4" t="n">
-        <v>0.359375</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="U4" t="n">
-        <v>0.40625</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="V4" t="n">
-        <v>0.390625</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="W4" t="n">
-        <v>0.328125</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1875</v>
+        <v>0.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.046875</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1875</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.234375</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.234375</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.234375</v>
+        <v>0.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1875</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.03125</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0625</v>
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Nov</t>
-        </is>
+      <c r="A5" t="n">
+        <v>2024</v>
       </c>
       <c r="B5" t="n">
-        <v>0.046875</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.046875</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0625</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.078125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.046875</v>
+        <v>0.15</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03125</v>
+        <v>0.15</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03125</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03125</v>
+        <v>0.1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03125</v>
+        <v>0.1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.046875</v>
+        <v>0.1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.046875</v>
+        <v>0.25</v>
       </c>
       <c r="M5" t="n">
-        <v>0.046875</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O5" t="n">
-        <v>0.015625</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03125</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03125</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09375</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="T5" t="n">
-        <v>0.09375</v>
+        <v>0.15</v>
       </c>
       <c r="U5" t="n">
-        <v>0.078125</v>
+        <v>0.1</v>
       </c>
       <c r="V5" t="n">
-        <v>0.09375</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03125</v>
+        <v>0.05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.046875</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0625</v>
+        <v>0.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.046875</v>
+        <v>0.05</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.03125</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.015625</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.03125</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.03125</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>0.1166666666666667</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Dec</t>
-        </is>
+      <c r="A6" t="n">
+        <v>2024</v>
       </c>
       <c r="B6" t="n">
-        <v>0.046875</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0.046875</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.015625</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.015625</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03125</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09375</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09375</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N6" t="n">
-        <v>0.078125</v>
+        <v>0.05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.015625</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="S6" t="n">
-        <v>0.015625</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="T6" t="n">
-        <v>0.015625</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="U6" t="n">
-        <v>0.015625</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.015625</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.015625</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.03125</v>
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Jan</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2024</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03125</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1082,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1094,65 +1102,66 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.046875</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.046875</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="V7" t="n">
-        <v>0.046875</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="X7" t="n">
-        <v>0.046875</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Feb</t>
-        </is>
+      <c r="A8" t="n">
+        <v>2024</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1161,43 +1170,43 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.015625</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03125</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1224,71 +1233,72 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Mar</t>
-        </is>
+      <c r="A9" t="n">
+        <v>2024</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.015625</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03125</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>0.046875</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.046875</v>
+        <v>0.05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.046875</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.046875</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.078125</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.078125</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.078125</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.078125</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1297,89 +1307,90 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.015625</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.015625</v>
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Apr</t>
-        </is>
+      <c r="A10" t="n">
+        <v>2024</v>
       </c>
       <c r="B10" t="n">
-        <v>0.078125</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>0.078125</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09375</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.265625</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>0.296875</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>0.25</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.203125</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.046875</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1394,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1409,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1430,17 +1441,18 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Jun</t>
-        </is>
+      <c r="A11" t="n">
+        <v>2024</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1464,31 +1476,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="M11" t="n">
-        <v>0.015625</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1532,104 +1544,7 @@
       <c r="AF11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Jul</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AG11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/future_occ.xlsx
+++ b/Output/future_occ.xlsx
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.45</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="Z2" t="n">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0.5833333333333334</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.5</v>
       </c>
       <c r="AB2" t="n">
         <v>0.4166666666666667</v>
@@ -647,13 +647,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="F3" t="n">
         <v>0.4</v>
@@ -677,22 +677,22 @@
         <v>0.9</v>
       </c>
       <c r="M3" t="n">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.8666666666666667</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.85</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="P3" t="n">
-        <v>0.8166666666666667</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="S3" t="n">
         <v>0.2166666666666667</v>
@@ -710,34 +710,34 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.35</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="AB3" t="n">
         <v>0.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.35</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.2</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -748,19 +748,19 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="D4" t="n">
         <v>0.5833333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="F4" t="n">
         <v>0.8166666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.65</v>
       </c>
       <c r="H4" t="n">
         <v>0.6833333333333333</v>
@@ -808,10 +808,10 @@
         <v>0.1166666666666667</v>
       </c>
       <c r="W4" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="X4" t="n">
         <v>0.1166666666666667</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.1</v>
       </c>
       <c r="Y4" t="n">
         <v>0.1166666666666667</v>
@@ -897,13 +897,13 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="T5" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="V5" t="n">
         <v>0.01666666666666667</v>
